--- a/Sprint 2/Sprint2/Sprint2/DatenbankSchraube.xlsx
+++ b/Sprint 2/Sprint2/Sprint2/DatenbankSchraube.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wurbs\Documents\Uni\Hsp\HSP_GruppeF_Sprint1\Sprint 2\Sprint2\Sprint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Jade\HSP\HSP_Gruppe_F\Sprint 2\Sprint2\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC34B87-47EB-49F8-867A-597CF8FE6956}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,12 +138,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,7 +197,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -222,7 +218,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -512,45 +507,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.01</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7.66</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>11.05</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>14.38</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>17.77</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20.03</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
+        <v>23.38</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>26.75</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
+        <v>33.53</v>
+      </c>
+      <c r="D12" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="D13" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3">
+        <v>46</v>
+      </c>
+      <c r="C14" s="3">
+        <v>51.28</v>
+      </c>
+      <c r="D14" s="3">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2">
+        <v>61.31</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="F1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16"/>
-      <c r="K1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
-      <c r="P1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="16"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -558,553 +757,462 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
       <c r="B3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="2">
         <v>5.5</v>
       </c>
-      <c r="C3" s="2">
-        <v>6.01</v>
-      </c>
       <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3</v>
-      </c>
-      <c r="K3" s="9">
-        <v>3</v>
-      </c>
-      <c r="L3" s="9">
-        <v>2</v>
-      </c>
-      <c r="M3" s="9">
-        <v>5.5</v>
-      </c>
-      <c r="N3" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="P3" s="12">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="R3" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="S3" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>4</v>
       </c>
       <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
-        <v>7.66</v>
-      </c>
       <c r="D4" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="F4" s="3">
         <v>4</v>
       </c>
-      <c r="G4" s="3">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3">
-        <v>4</v>
-      </c>
-      <c r="K4" s="10">
-        <v>4</v>
-      </c>
-      <c r="L4" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="M4" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="N4" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="P4" s="13">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="R4" s="13">
-        <v>7</v>
-      </c>
-      <c r="S4" s="13">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>8.7899999999999991</v>
+        <v>8.5</v>
       </c>
       <c r="D5" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="I5" s="2">
-        <v>5</v>
-      </c>
-      <c r="K5" s="9">
-        <v>5</v>
-      </c>
-      <c r="L5" s="9">
-        <v>3</v>
-      </c>
-      <c r="M5" s="9">
-        <v>9.4</v>
-      </c>
-      <c r="N5" s="9">
-        <v>3.1</v>
-      </c>
-      <c r="P5" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="R5" s="12">
-        <v>8.5</v>
-      </c>
-      <c r="S5" s="12">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>6</v>
       </c>
       <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
-        <v>11.05</v>
-      </c>
       <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3">
         <v>6</v>
       </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3">
-        <v>6</v>
-      </c>
-      <c r="K6" s="10">
-        <v>6</v>
-      </c>
-      <c r="L6" s="10">
-        <v>4</v>
-      </c>
-      <c r="M6" s="10">
-        <v>11.3</v>
-      </c>
-      <c r="N6" s="10">
-        <v>3.7</v>
-      </c>
-      <c r="P6" s="13">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="R6" s="13">
-        <v>10</v>
-      </c>
-      <c r="S6" s="13">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>8</v>
       </c>
       <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
-        <v>14.38</v>
-      </c>
       <c r="D7" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="F7" s="2">
         <v>8</v>
       </c>
-      <c r="G7" s="2">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2">
-        <v>8</v>
-      </c>
-      <c r="K7" s="9">
-        <v>8</v>
-      </c>
-      <c r="L7" s="9">
-        <v>5</v>
-      </c>
-      <c r="M7" s="9">
-        <v>15.2</v>
-      </c>
-      <c r="N7" s="9">
-        <v>5</v>
-      </c>
-      <c r="P7" s="10">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>2</v>
-      </c>
-      <c r="R7" s="12">
-        <v>13</v>
-      </c>
-      <c r="S7" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>10</v>
       </c>
       <c r="B8" s="3">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
         <v>16</v>
       </c>
-      <c r="C8" s="3">
-        <v>17.77</v>
-      </c>
       <c r="D8" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="F8" s="3">
         <v>10</v>
       </c>
-      <c r="G8" s="3">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3">
-        <v>16</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10</v>
-      </c>
-      <c r="K8" s="10">
-        <v>10</v>
-      </c>
-      <c r="L8" s="10">
-        <v>6</v>
-      </c>
-      <c r="M8" s="10">
-        <v>19.2</v>
-      </c>
-      <c r="N8" s="10">
-        <v>6.2</v>
-      </c>
-      <c r="P8" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="R8" s="13">
-        <v>16</v>
-      </c>
-      <c r="S8" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>12</v>
       </c>
       <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
-        <v>20.03</v>
-      </c>
       <c r="D9" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="10">
         <v>7.5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="D4" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>11.3</v>
+      </c>
+      <c r="D6" s="10">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>15.2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>19.2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>12</v>
       </c>
-      <c r="G9" s="2">
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>23.1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10">
         <v>10</v>
       </c>
-      <c r="H9" s="2">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="C10" s="10">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>20</v>
+      </c>
+      <c r="B11" s="9">
         <v>12</v>
       </c>
-      <c r="K9" s="9">
-        <v>12</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="C11" s="9">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="9">
-        <v>23.1</v>
-      </c>
-      <c r="N9" s="9">
-        <v>7.4</v>
-      </c>
-      <c r="P9" s="14"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3">
-        <v>23.38</v>
-      </c>
-      <c r="D10" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="C6" s="13">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12">
+        <v>13</v>
+      </c>
+      <c r="D7" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="C8" s="13">
         <v>16</v>
       </c>
-      <c r="G10" s="5">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3">
-        <v>24</v>
-      </c>
-      <c r="I10" s="3">
-        <v>16</v>
-      </c>
-      <c r="K10" s="10">
-        <v>16</v>
-      </c>
-      <c r="L10" s="10">
-        <v>10</v>
-      </c>
-      <c r="M10" s="10">
-        <v>29</v>
-      </c>
-      <c r="N10" s="10">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2">
-        <v>26.75</v>
-      </c>
-      <c r="D11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6">
-        <v>20</v>
-      </c>
-      <c r="G11" s="7">
-        <v>17</v>
-      </c>
-      <c r="H11" s="2">
-        <v>30</v>
-      </c>
-      <c r="I11" s="2">
-        <v>20</v>
-      </c>
-      <c r="K11" s="9">
-        <v>20</v>
-      </c>
-      <c r="L11" s="9">
-        <v>12</v>
-      </c>
-      <c r="M11" s="9">
-        <v>36</v>
-      </c>
-      <c r="N11" s="9">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3">
-        <v>33.53</v>
-      </c>
-      <c r="D12" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="F12" s="4">
-        <v>24</v>
-      </c>
-      <c r="G12" s="5">
-        <v>19</v>
-      </c>
-      <c r="H12" s="3">
-        <v>36</v>
-      </c>
-      <c r="I12" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2">
-        <v>39.979999999999997</v>
-      </c>
-      <c r="D13" s="2">
-        <v>15</v>
-      </c>
-      <c r="F13" s="6">
-        <v>30</v>
-      </c>
-      <c r="G13" s="7">
-        <v>22</v>
-      </c>
-      <c r="H13" s="2">
-        <v>45</v>
-      </c>
-      <c r="I13" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A14" s="3">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3">
-        <v>46</v>
-      </c>
-      <c r="C14" s="3">
-        <v>51.28</v>
-      </c>
-      <c r="D14" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="F14" s="4">
-        <v>36</v>
-      </c>
-      <c r="G14" s="3">
-        <v>27</v>
-      </c>
-      <c r="H14" s="3">
-        <v>54</v>
-      </c>
-      <c r="I14" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
-        <v>36</v>
-      </c>
-      <c r="B15" s="2">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2">
-        <v>61.31</v>
-      </c>
-      <c r="D15" s="2">
-        <v>22.5</v>
+      <c r="D8" s="13">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 2/Sprint2/Sprint2/DatenbankSchraube.xlsx
+++ b/Sprint 2/Sprint2/Sprint2/DatenbankSchraube.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="5850" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
     <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
+    <sheet name="Tabelle6" sheetId="6" r:id="rId6"/>
+    <sheet name="Tabelle7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Sechskantschraube</t>
   </si>
@@ -57,6 +60,36 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Schaftlänge</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Festigkeitsklassse</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>Streckgrenze</t>
+  </si>
+  <si>
+    <t>Zugfestigkeit</t>
+  </si>
+  <si>
+    <t>Stückzahl</t>
   </si>
 </sst>
 </file>
@@ -197,7 +230,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -224,6 +257,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent3" xfId="3" builtinId="38"/>
@@ -510,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -1218,4 +1252,172 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+      <c r="C4">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>900</v>
+      </c>
+      <c r="C5">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>